--- a/operadores aritméticos/Exercicíos PA.xlsx
+++ b/operadores aritméticos/Exercicíos PA.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martinho\Documents\Guilherme docs\ETEC\PA (Prog. de Algoritmos)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluno\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="134">
   <si>
     <t>lado_Q</t>
   </si>
@@ -357,13 +357,82 @@
   </si>
   <si>
     <t>F= (9 * 20 + 160) / 5</t>
+  </si>
+  <si>
+    <t>Real em dólar</t>
+  </si>
+  <si>
+    <t>Dolar</t>
+  </si>
+  <si>
+    <t>Dolar = 100 / 4,5</t>
+  </si>
+  <si>
+    <t>Dolar = 50 / 2</t>
+  </si>
+  <si>
+    <t>Dolar = 150 / 5</t>
+  </si>
+  <si>
+    <t>A soma do quadrado de 4 números</t>
+  </si>
+  <si>
+    <t>n3</t>
+  </si>
+  <si>
+    <t>n4</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t>SOMA</t>
+  </si>
+  <si>
+    <t>2^2</t>
+  </si>
+  <si>
+    <t>4^2</t>
+  </si>
+  <si>
+    <t>5^2</t>
+  </si>
+  <si>
+    <t>6^2</t>
+  </si>
+  <si>
+    <t>4 + 16 + 25 + 36</t>
+  </si>
+  <si>
+    <t>1^2</t>
+  </si>
+  <si>
+    <t>9^2</t>
+  </si>
+  <si>
+    <t>1 + 16 + 25 + 81</t>
+  </si>
+  <si>
+    <t>3^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 + 4  + 9 + 16 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -421,8 +490,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Araial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -489,8 +582,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -572,11 +671,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -715,6 +834,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -735,7 +903,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -773,7 +941,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -845,7 +1013,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -995,15 +1163,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O66"/>
+  <dimension ref="A1:O83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="L53" sqref="L53"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="M77" sqref="M77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15" thickBot="1">
       <c r="A1" s="60" t="s">
         <v>3</v>
       </c>
@@ -1021,7 +1189,7 @@
       <c r="L1" s="61"/>
       <c r="M1" s="53"/>
     </row>
-    <row r="2" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="16" thickBot="1">
       <c r="A2" s="50"/>
       <c r="B2" s="22" t="s">
         <v>0</v>
@@ -1041,7 +1209,7 @@
       <c r="L2" s="61"/>
       <c r="M2" s="53"/>
     </row>
-    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="15" thickBot="1">
       <c r="A3" s="49"/>
       <c r="B3" s="5">
         <v>2</v>
@@ -1061,7 +1229,7 @@
       <c r="L3" s="61"/>
       <c r="M3" s="53"/>
     </row>
-    <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="15" thickBot="1">
       <c r="A4" s="49"/>
       <c r="B4" s="10">
         <v>5</v>
@@ -1081,7 +1249,7 @@
       <c r="L4" s="61"/>
       <c r="M4" s="53"/>
     </row>
-    <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="15" thickBot="1">
       <c r="A5" s="49"/>
       <c r="B5" s="11">
         <v>10</v>
@@ -1101,7 +1269,7 @@
       <c r="L5" s="61"/>
       <c r="M5" s="53"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="A6" s="58"/>
       <c r="B6" s="58"/>
       <c r="C6" s="58"/>
@@ -1115,7 +1283,7 @@
       <c r="L6" s="61"/>
       <c r="M6" s="53"/>
     </row>
-    <row r="7" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="16" thickBot="1">
       <c r="A7" s="59" t="s">
         <v>4</v>
       </c>
@@ -1133,7 +1301,7 @@
       <c r="L7" s="61"/>
       <c r="M7" s="53"/>
     </row>
-    <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="15" thickBot="1">
       <c r="A8" s="22" t="s">
         <v>5</v>
       </c>
@@ -1159,7 +1327,7 @@
       <c r="L8" s="61"/>
       <c r="M8" s="53"/>
     </row>
-    <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="15" thickBot="1">
       <c r="A9" s="5">
         <v>2</v>
       </c>
@@ -1186,7 +1354,7 @@
       <c r="M9" s="53"/>
       <c r="O9" s="12"/>
     </row>
-    <row r="10" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="15" thickBot="1">
       <c r="A10" s="10">
         <v>3</v>
       </c>
@@ -1212,7 +1380,7 @@
       <c r="L10" s="61"/>
       <c r="M10" s="53"/>
     </row>
-    <row r="11" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="15" thickBot="1">
       <c r="A11" s="10">
         <v>5</v>
       </c>
@@ -1238,7 +1406,7 @@
       <c r="L11" s="61"/>
       <c r="M11" s="53"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="A12" s="58"/>
       <c r="B12" s="58"/>
       <c r="C12" s="58"/>
@@ -1252,7 +1420,7 @@
       <c r="L12" s="61"/>
       <c r="M12" s="53"/>
     </row>
-    <row r="13" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="16" thickBot="1">
       <c r="A13" s="59" t="s">
         <v>21</v>
       </c>
@@ -1270,7 +1438,7 @@
       <c r="L13" s="61"/>
       <c r="M13" s="53"/>
     </row>
-    <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="15" thickBot="1">
       <c r="A14" s="49"/>
       <c r="B14" s="22" t="s">
         <v>23</v>
@@ -1290,7 +1458,7 @@
       <c r="L14" s="61"/>
       <c r="M14" s="53"/>
     </row>
-    <row r="15" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="15" thickBot="1">
       <c r="A15" s="49"/>
       <c r="B15" s="10">
         <v>50</v>
@@ -1310,7 +1478,7 @@
       <c r="L15" s="61"/>
       <c r="M15" s="53"/>
     </row>
-    <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="15" thickBot="1">
       <c r="A16" s="49"/>
       <c r="B16" s="10">
         <v>100</v>
@@ -1330,7 +1498,7 @@
       <c r="L16" s="61"/>
       <c r="M16" s="53"/>
     </row>
-    <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="15" thickBot="1">
       <c r="A17" s="49"/>
       <c r="B17" s="10">
         <v>150</v>
@@ -1350,7 +1518,7 @@
       <c r="L17" s="61"/>
       <c r="M17" s="53"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13">
       <c r="A18" s="58"/>
       <c r="B18" s="58"/>
       <c r="C18" s="58"/>
@@ -1364,7 +1532,7 @@
       <c r="L18" s="61"/>
       <c r="M18" s="53"/>
     </row>
-    <row r="19" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="16" thickBot="1">
       <c r="A19" s="59" t="s">
         <v>28</v>
       </c>
@@ -1382,7 +1550,7 @@
       <c r="L19" s="61"/>
       <c r="M19" s="53"/>
     </row>
-    <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" ht="15" thickBot="1">
       <c r="A20" s="22" t="s">
         <v>30</v>
       </c>
@@ -1404,7 +1572,7 @@
       <c r="L20" s="61"/>
       <c r="M20" s="53"/>
     </row>
-    <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" ht="15" thickBot="1">
       <c r="A21" s="10">
         <v>50</v>
       </c>
@@ -1426,7 +1594,7 @@
       <c r="L21" s="61"/>
       <c r="M21" s="53"/>
     </row>
-    <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" ht="15" thickBot="1">
       <c r="A22" s="10">
         <v>100</v>
       </c>
@@ -1448,7 +1616,7 @@
       <c r="L22" s="61"/>
       <c r="M22" s="53"/>
     </row>
-    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" ht="15" thickBot="1">
       <c r="A23" s="10">
         <v>170</v>
       </c>
@@ -1470,7 +1638,7 @@
       <c r="L23" s="61"/>
       <c r="M23" s="53"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13">
       <c r="A24" s="58"/>
       <c r="B24" s="58"/>
       <c r="C24" s="58"/>
@@ -1484,7 +1652,7 @@
       <c r="L24" s="61"/>
       <c r="M24" s="53"/>
     </row>
-    <row r="25" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" ht="16" thickBot="1">
       <c r="A25" s="59" t="s">
         <v>36</v>
       </c>
@@ -1503,7 +1671,7 @@
       <c r="L25" s="61"/>
       <c r="M25" s="53"/>
     </row>
-    <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" ht="15" thickBot="1">
       <c r="A26" s="22" t="s">
         <v>40</v>
       </c>
@@ -1527,7 +1695,7 @@
       <c r="L26" s="61"/>
       <c r="M26" s="53"/>
     </row>
-    <row r="27" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" ht="15" thickBot="1">
       <c r="A27" s="10">
         <v>10</v>
       </c>
@@ -1551,7 +1719,7 @@
       <c r="L27" s="61"/>
       <c r="M27" s="53"/>
     </row>
-    <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" ht="15" thickBot="1">
       <c r="A28" s="10">
         <v>7</v>
       </c>
@@ -1575,7 +1743,7 @@
       <c r="L28" s="61"/>
       <c r="M28" s="53"/>
     </row>
-    <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" ht="15" thickBot="1">
       <c r="A29" s="10">
         <v>4</v>
       </c>
@@ -1599,7 +1767,7 @@
       <c r="L29" s="61"/>
       <c r="M29" s="53"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13">
       <c r="A30" s="58"/>
       <c r="B30" s="58"/>
       <c r="C30" s="58"/>
@@ -1613,7 +1781,7 @@
       <c r="L30" s="61"/>
       <c r="M30" s="53"/>
     </row>
-    <row r="31" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" ht="16" thickBot="1">
       <c r="A31" s="59" t="s">
         <v>44</v>
       </c>
@@ -1631,7 +1799,7 @@
       <c r="L31" s="53"/>
       <c r="M31" s="53"/>
     </row>
-    <row r="32" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" ht="15" thickBot="1">
       <c r="A32" s="22" t="s">
         <v>49</v>
       </c>
@@ -1655,7 +1823,7 @@
       <c r="L32" s="62"/>
       <c r="M32" s="61"/>
     </row>
-    <row r="33" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" ht="15" thickBot="1">
       <c r="A33" s="5">
         <v>4</v>
       </c>
@@ -1679,7 +1847,7 @@
       <c r="L33" s="62"/>
       <c r="M33" s="61"/>
     </row>
-    <row r="34" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" ht="15" thickBot="1">
       <c r="A34" s="10">
         <v>25</v>
       </c>
@@ -1703,7 +1871,7 @@
       <c r="L34" s="62"/>
       <c r="M34" s="61"/>
     </row>
-    <row r="35" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" ht="15" thickBot="1">
       <c r="A35" s="10">
         <v>150</v>
       </c>
@@ -1727,7 +1895,7 @@
       <c r="L35" s="62"/>
       <c r="M35" s="61"/>
     </row>
-    <row r="36" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" ht="15" thickBot="1">
       <c r="A36" s="49"/>
       <c r="B36" s="49"/>
       <c r="C36" s="31" t="s">
@@ -1751,7 +1919,7 @@
       <c r="L36" s="62"/>
       <c r="M36" s="61"/>
     </row>
-    <row r="37" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" ht="15" thickBot="1">
       <c r="A37" s="49"/>
       <c r="B37" s="49"/>
       <c r="C37" s="7" t="s">
@@ -1775,7 +1943,7 @@
       <c r="L37" s="62"/>
       <c r="M37" s="61"/>
     </row>
-    <row r="38" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" ht="15" thickBot="1">
       <c r="A38" s="49"/>
       <c r="B38" s="49"/>
       <c r="C38" s="7" t="s">
@@ -1799,7 +1967,7 @@
       <c r="L38" s="62"/>
       <c r="M38" s="61"/>
     </row>
-    <row r="39" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" ht="15" thickBot="1">
       <c r="A39" s="49"/>
       <c r="B39" s="49"/>
       <c r="C39" s="7" t="s">
@@ -1823,7 +1991,7 @@
       <c r="L39" s="62"/>
       <c r="M39" s="61"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13">
       <c r="A40" s="58"/>
       <c r="B40" s="58"/>
       <c r="C40" s="58"/>
@@ -1837,7 +2005,7 @@
       <c r="L40" s="53"/>
       <c r="M40" s="53"/>
     </row>
-    <row r="41" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" ht="16" thickBot="1">
       <c r="A41" s="59" t="s">
         <v>64</v>
       </c>
@@ -1856,7 +2024,7 @@
       <c r="L41" s="53"/>
       <c r="M41" s="53"/>
     </row>
-    <row r="42" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" ht="15" thickBot="1">
       <c r="A42" s="22" t="s">
         <v>66</v>
       </c>
@@ -1881,7 +2049,7 @@
       <c r="L42" s="61"/>
       <c r="M42" s="61"/>
     </row>
-    <row r="43" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" ht="15" thickBot="1">
       <c r="A43" s="10">
         <v>1000</v>
       </c>
@@ -1906,7 +2074,7 @@
       <c r="L43" s="61"/>
       <c r="M43" s="61"/>
     </row>
-    <row r="44" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" ht="15" thickBot="1">
       <c r="A44" s="10">
         <v>2000</v>
       </c>
@@ -1931,7 +2099,7 @@
       <c r="L44" s="61"/>
       <c r="M44" s="53"/>
     </row>
-    <row r="45" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" ht="15" thickBot="1">
       <c r="A45" s="10">
         <v>1500</v>
       </c>
@@ -1956,7 +2124,7 @@
       <c r="L45" s="61"/>
       <c r="M45" s="53"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13">
       <c r="A46" s="58"/>
       <c r="B46" s="58"/>
       <c r="C46" s="58"/>
@@ -1970,7 +2138,7 @@
       <c r="L46" s="53"/>
       <c r="M46" s="53"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13">
       <c r="A47" s="34"/>
       <c r="B47" s="53"/>
       <c r="C47" s="53"/>
@@ -1984,7 +2152,7 @@
       <c r="L47" s="53"/>
       <c r="M47" s="53"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13">
       <c r="A48" s="53"/>
       <c r="B48" s="53"/>
       <c r="C48" s="53"/>
@@ -1998,7 +2166,7 @@
       <c r="L48" s="53"/>
       <c r="M48" s="53"/>
     </row>
-    <row r="49" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" ht="16" thickBot="1">
       <c r="A49" s="59" t="s">
         <v>81</v>
       </c>
@@ -2016,7 +2184,7 @@
       <c r="L49" s="61"/>
       <c r="M49" s="53"/>
     </row>
-    <row r="50" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" ht="15" thickBot="1">
       <c r="A50" s="22" t="s">
         <v>72</v>
       </c>
@@ -2040,7 +2208,7 @@
       <c r="L50" s="61"/>
       <c r="M50" s="53"/>
     </row>
-    <row r="51" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" ht="15" thickBot="1">
       <c r="A51" s="10">
         <v>2000</v>
       </c>
@@ -2064,7 +2232,7 @@
       <c r="L51" s="61"/>
       <c r="M51" s="53"/>
     </row>
-    <row r="52" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" ht="15" thickBot="1">
       <c r="A52" s="10">
         <v>5700</v>
       </c>
@@ -2088,7 +2256,7 @@
       <c r="L52" s="61"/>
       <c r="M52" s="53"/>
     </row>
-    <row r="53" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" ht="15" thickBot="1">
       <c r="A53" s="10">
         <v>1000</v>
       </c>
@@ -2112,7 +2280,7 @@
       <c r="L53" s="63"/>
       <c r="M53" s="53"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13">
       <c r="A54" s="58"/>
       <c r="B54" s="58"/>
       <c r="C54" s="58"/>
@@ -2126,7 +2294,7 @@
       <c r="L54" s="53"/>
       <c r="M54" s="53"/>
     </row>
-    <row r="55" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" ht="16" thickBot="1">
       <c r="A55" s="59" t="s">
         <v>93</v>
       </c>
@@ -2144,7 +2312,7 @@
       <c r="L55" s="53"/>
       <c r="M55" s="53"/>
     </row>
-    <row r="56" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" ht="15" thickBot="1">
       <c r="A56" s="22" t="s">
         <v>95</v>
       </c>
@@ -2166,7 +2334,7 @@
       <c r="L56" s="61"/>
       <c r="M56" s="53"/>
     </row>
-    <row r="57" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" ht="15" thickBot="1">
       <c r="A57" s="37">
         <v>100</v>
       </c>
@@ -2188,7 +2356,7 @@
       <c r="L57" s="61"/>
       <c r="M57" s="53"/>
     </row>
-    <row r="58" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" ht="15" thickBot="1">
       <c r="A58" s="37">
         <v>50</v>
       </c>
@@ -2210,7 +2378,7 @@
       <c r="L58" s="61"/>
       <c r="M58" s="53"/>
     </row>
-    <row r="59" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" ht="15" thickBot="1">
       <c r="A59" s="37">
         <v>400</v>
       </c>
@@ -2232,7 +2400,7 @@
       <c r="L59" s="61"/>
       <c r="M59" s="53"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13">
       <c r="A60" s="58"/>
       <c r="B60" s="58"/>
       <c r="C60" s="58"/>
@@ -2246,7 +2414,7 @@
       <c r="L60" s="61"/>
       <c r="M60" s="53"/>
     </row>
-    <row r="61" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" ht="16" thickBot="1">
       <c r="A61" s="59" t="s">
         <v>101</v>
       </c>
@@ -2263,7 +2431,7 @@
       <c r="J61" s="47"/>
       <c r="M61" s="12"/>
     </row>
-    <row r="62" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" ht="15" thickBot="1">
       <c r="A62" s="49"/>
       <c r="B62" s="38" t="s">
         <v>104</v>
@@ -2283,7 +2451,7 @@
       <c r="L62" s="61"/>
       <c r="M62" s="53"/>
     </row>
-    <row r="63" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" ht="15" thickBot="1">
       <c r="A63" s="49"/>
       <c r="B63" s="10" t="s">
         <v>105</v>
@@ -2303,7 +2471,7 @@
       <c r="L63" s="61"/>
       <c r="M63" s="53"/>
     </row>
-    <row r="64" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" ht="15" thickBot="1">
       <c r="A64" s="49"/>
       <c r="B64" s="10" t="s">
         <v>106</v>
@@ -2323,7 +2491,7 @@
       <c r="L64" s="61"/>
       <c r="M64" s="53"/>
     </row>
-    <row r="65" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" ht="15" thickBot="1">
       <c r="A65" s="49"/>
       <c r="B65" s="10" t="s">
         <v>107</v>
@@ -2343,7 +2511,7 @@
       <c r="L65" s="61"/>
       <c r="M65" s="53"/>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13">
       <c r="A66" s="58"/>
       <c r="B66" s="58"/>
       <c r="C66" s="58"/>
@@ -2355,7 +2523,340 @@
       <c r="I66" s="58"/>
       <c r="J66" s="58"/>
     </row>
+    <row r="67" spans="1:13">
+      <c r="A67" s="64"/>
+      <c r="B67" s="64"/>
+      <c r="C67" s="64"/>
+      <c r="D67" s="64"/>
+      <c r="E67" s="64"/>
+      <c r="F67" s="64"/>
+      <c r="G67" s="64"/>
+      <c r="H67" s="64"/>
+      <c r="I67" s="64"/>
+      <c r="J67" s="64"/>
+    </row>
+    <row r="68" spans="1:13" ht="16" thickBot="1">
+      <c r="A68" s="65" t="s">
+        <v>3</v>
+      </c>
+      <c r="B68" s="66" t="s">
+        <v>111</v>
+      </c>
+      <c r="C68" s="47"/>
+      <c r="D68" s="47"/>
+      <c r="E68" s="47"/>
+      <c r="F68" s="47"/>
+      <c r="G68" s="47"/>
+      <c r="H68" s="47"/>
+      <c r="I68" s="47"/>
+      <c r="J68" s="47"/>
+    </row>
+    <row r="69" spans="1:13" ht="15" thickBot="1">
+      <c r="A69" s="67" t="s">
+        <v>95</v>
+      </c>
+      <c r="B69" s="67" t="s">
+        <v>96</v>
+      </c>
+      <c r="C69" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="D69" s="69"/>
+      <c r="E69" s="69"/>
+      <c r="F69" s="70" t="s">
+        <v>112</v>
+      </c>
+      <c r="G69" s="49"/>
+      <c r="H69" s="49"/>
+      <c r="I69" s="49"/>
+      <c r="J69" s="49"/>
+    </row>
+    <row r="70" spans="1:13" ht="15" thickBot="1">
+      <c r="A70" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="B70" s="10">
+        <v>100</v>
+      </c>
+      <c r="C70" s="28"/>
+      <c r="D70" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E70" s="27"/>
+      <c r="F70" s="4">
+        <v>22.22</v>
+      </c>
+      <c r="G70" s="49"/>
+      <c r="H70" s="49"/>
+      <c r="I70" s="49"/>
+      <c r="J70" s="49"/>
+    </row>
+    <row r="71" spans="1:13" ht="15" thickBot="1">
+      <c r="A71" s="10">
+        <v>2</v>
+      </c>
+      <c r="B71" s="10">
+        <v>50</v>
+      </c>
+      <c r="C71" s="28"/>
+      <c r="D71" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="E71" s="27"/>
+      <c r="F71" s="4">
+        <v>25</v>
+      </c>
+      <c r="G71" s="49"/>
+      <c r="H71" s="49"/>
+      <c r="I71" s="49"/>
+      <c r="J71" s="49"/>
+    </row>
+    <row r="72" spans="1:13" ht="15" thickBot="1">
+      <c r="A72" s="10">
+        <v>5</v>
+      </c>
+      <c r="B72" s="10">
+        <v>150</v>
+      </c>
+      <c r="C72" s="28"/>
+      <c r="D72" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="E72" s="27"/>
+      <c r="F72" s="4">
+        <v>3</v>
+      </c>
+      <c r="G72" s="49"/>
+      <c r="H72" s="49"/>
+      <c r="I72" s="49"/>
+      <c r="J72" s="49"/>
+    </row>
+    <row r="73" spans="1:13">
+      <c r="A73" s="71"/>
+      <c r="B73" s="71"/>
+      <c r="C73" s="71"/>
+      <c r="D73" s="71"/>
+      <c r="E73" s="71"/>
+      <c r="F73" s="71"/>
+      <c r="G73" s="71"/>
+      <c r="H73" s="71"/>
+      <c r="I73" s="71"/>
+      <c r="J73" s="71"/>
+    </row>
+    <row r="74" spans="1:13" ht="16" thickBot="1">
+      <c r="A74" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="B74" s="73" t="s">
+        <v>116</v>
+      </c>
+      <c r="C74" s="47"/>
+      <c r="D74" s="47"/>
+      <c r="E74" s="47"/>
+      <c r="F74" s="47"/>
+      <c r="G74" s="47"/>
+      <c r="H74" s="47"/>
+      <c r="I74" s="47"/>
+      <c r="J74" s="47"/>
+    </row>
+    <row r="75" spans="1:13" ht="15" thickBot="1">
+      <c r="A75" s="67" t="s">
+        <v>49</v>
+      </c>
+      <c r="B75" s="67" t="s">
+        <v>50</v>
+      </c>
+      <c r="C75" s="67" t="s">
+        <v>117</v>
+      </c>
+      <c r="D75" s="67" t="s">
+        <v>118</v>
+      </c>
+      <c r="E75" s="67" t="s">
+        <v>119</v>
+      </c>
+      <c r="F75" s="67" t="s">
+        <v>120</v>
+      </c>
+      <c r="G75" s="67" t="s">
+        <v>121</v>
+      </c>
+      <c r="H75" s="67" t="s">
+        <v>122</v>
+      </c>
+      <c r="I75" s="49"/>
+      <c r="J75" s="49"/>
+    </row>
+    <row r="76" spans="1:13" ht="15" thickBot="1">
+      <c r="A76" s="10">
+        <v>2</v>
+      </c>
+      <c r="B76" s="10">
+        <v>4</v>
+      </c>
+      <c r="C76" s="10">
+        <v>5</v>
+      </c>
+      <c r="D76" s="5">
+        <v>6</v>
+      </c>
+      <c r="E76" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="F76" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="G76" s="75" t="s">
+        <v>126</v>
+      </c>
+      <c r="H76" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="I76" s="49"/>
+      <c r="J76" s="49"/>
+    </row>
+    <row r="77" spans="1:13" ht="15" thickBot="1">
+      <c r="A77" s="10">
+        <v>1</v>
+      </c>
+      <c r="B77" s="10">
+        <v>4</v>
+      </c>
+      <c r="C77" s="10">
+        <v>5</v>
+      </c>
+      <c r="D77" s="5">
+        <v>9</v>
+      </c>
+      <c r="E77" s="74" t="s">
+        <v>129</v>
+      </c>
+      <c r="F77" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="G77" s="75" t="s">
+        <v>126</v>
+      </c>
+      <c r="H77" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="I77" s="49"/>
+      <c r="J77" s="49"/>
+      <c r="M77" s="82"/>
+    </row>
+    <row r="78" spans="1:13" ht="15" thickBot="1">
+      <c r="A78" s="10">
+        <v>1</v>
+      </c>
+      <c r="B78" s="10">
+        <v>2</v>
+      </c>
+      <c r="C78" s="10">
+        <v>3</v>
+      </c>
+      <c r="D78" s="5">
+        <v>4</v>
+      </c>
+      <c r="E78" s="74" t="s">
+        <v>129</v>
+      </c>
+      <c r="F78" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="G78" s="75" t="s">
+        <v>132</v>
+      </c>
+      <c r="H78" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="I78" s="49"/>
+      <c r="J78" s="49"/>
+    </row>
+    <row r="79" spans="1:13" ht="15" thickBot="1">
+      <c r="A79" s="49"/>
+      <c r="B79" s="49"/>
+      <c r="C79" s="49"/>
+      <c r="D79" s="49"/>
+      <c r="E79" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="F79" s="78"/>
+      <c r="G79" s="78"/>
+      <c r="H79" s="76" t="s">
+        <v>123</v>
+      </c>
+      <c r="I79" s="49"/>
+      <c r="J79" s="49"/>
+    </row>
+    <row r="80" spans="1:13" ht="15" thickBot="1">
+      <c r="A80" s="49"/>
+      <c r="B80" s="49"/>
+      <c r="C80" s="49"/>
+      <c r="D80" s="49"/>
+      <c r="E80" s="79" t="s">
+        <v>128</v>
+      </c>
+      <c r="F80" s="81"/>
+      <c r="G80" s="80"/>
+      <c r="H80" s="4">
+        <v>81</v>
+      </c>
+      <c r="I80" s="49"/>
+      <c r="J80" s="49"/>
+    </row>
+    <row r="81" spans="1:10" ht="15" thickBot="1">
+      <c r="A81" s="49"/>
+      <c r="B81" s="49"/>
+      <c r="C81" s="49"/>
+      <c r="D81" s="49"/>
+      <c r="E81" s="79" t="s">
+        <v>131</v>
+      </c>
+      <c r="F81" s="81"/>
+      <c r="G81" s="80"/>
+      <c r="H81" s="4">
+        <v>123</v>
+      </c>
+      <c r="I81" s="49"/>
+      <c r="J81" s="49"/>
+    </row>
+    <row r="82" spans="1:10" ht="15" thickBot="1">
+      <c r="A82" s="49"/>
+      <c r="B82" s="49"/>
+      <c r="C82" s="49"/>
+      <c r="D82" s="49"/>
+      <c r="E82" s="79" t="s">
+        <v>133</v>
+      </c>
+      <c r="F82" s="81"/>
+      <c r="G82" s="80"/>
+      <c r="H82" s="4">
+        <v>30</v>
+      </c>
+      <c r="I82" s="49"/>
+      <c r="J82" s="49"/>
+    </row>
+    <row r="83" spans="1:10">
+      <c r="A83" s="58"/>
+      <c r="B83" s="58"/>
+      <c r="C83" s="58"/>
+      <c r="D83" s="58"/>
+      <c r="E83" s="58"/>
+      <c r="F83" s="58"/>
+      <c r="G83" s="58"/>
+      <c r="H83" s="58"/>
+      <c r="I83" s="58"/>
+      <c r="J83" s="58"/>
+    </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A67:J67"/>
+    <mergeCell ref="C69:E69"/>
+    <mergeCell ref="E79:G79"/>
+    <mergeCell ref="E80:G80"/>
+    <mergeCell ref="E81:G81"/>
+    <mergeCell ref="E82:G82"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>

--- a/operadores aritméticos/Exercicíos PA.xlsx
+++ b/operadores aritméticos/Exercicíos PA.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluno\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\A-Baixar aqui\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="152">
   <si>
     <t>lado_Q</t>
   </si>
@@ -426,12 +426,66 @@
   </si>
   <si>
     <t xml:space="preserve">1 + 4  + 9 + 16 </t>
+  </si>
+  <si>
+    <t>Gasto de Gasolina</t>
+  </si>
+  <si>
+    <t>km/l</t>
+  </si>
+  <si>
+    <t>RSg</t>
+  </si>
+  <si>
+    <t>PROCESS.(totalG)</t>
+  </si>
+  <si>
+    <t>PROCESS. (TotalT)</t>
+  </si>
+  <si>
+    <t>totalG</t>
+  </si>
+  <si>
+    <t>TotalT</t>
+  </si>
+  <si>
+    <t>Velocidade Média</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>Vm</t>
+  </si>
+  <si>
+    <t>Vm = 150/ 1,13</t>
+  </si>
+  <si>
+    <t>Vm = 200/ 5</t>
+  </si>
+  <si>
+    <t>Vm = 1500/ 7</t>
+  </si>
+  <si>
+    <t>TotalT = totalG * 2</t>
+  </si>
+  <si>
+    <t>totalG = (450 * 4,50) / 10</t>
+  </si>
+  <si>
+    <t>totalG = (500 * 5,50) / 5</t>
+  </si>
+  <si>
+    <t>totalG = (2000 * 2,50) / 10</t>
+  </si>
+  <si>
+    <t>-------------------------------------------------------------------------------------------------------------------------------</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="12">
     <font>
       <sz val="11"/>
@@ -492,13 +546,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Araial"/>
     </font>
     <font>
@@ -514,8 +561,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -585,6 +639,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -695,7 +755,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -834,30 +894,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -867,6 +915,13 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -876,13 +931,40 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -903,7 +985,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -941,7 +1023,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1013,7 +1095,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1163,15 +1245,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O83"/>
+  <dimension ref="A1:O97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="M77" sqref="M77"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67:J67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" thickBot="1">
+    <row r="1" spans="1:15" ht="15.75" thickBot="1">
       <c r="A1" s="60" t="s">
         <v>3</v>
       </c>
@@ -1189,7 +1271,7 @@
       <c r="L1" s="61"/>
       <c r="M1" s="53"/>
     </row>
-    <row r="2" spans="1:15" ht="16" thickBot="1">
+    <row r="2" spans="1:15" ht="16.5" thickBot="1">
       <c r="A2" s="50"/>
       <c r="B2" s="22" t="s">
         <v>0</v>
@@ -1209,7 +1291,7 @@
       <c r="L2" s="61"/>
       <c r="M2" s="53"/>
     </row>
-    <row r="3" spans="1:15" ht="15" thickBot="1">
+    <row r="3" spans="1:15" ht="15.75" thickBot="1">
       <c r="A3" s="49"/>
       <c r="B3" s="5">
         <v>2</v>
@@ -1229,7 +1311,7 @@
       <c r="L3" s="61"/>
       <c r="M3" s="53"/>
     </row>
-    <row r="4" spans="1:15" ht="15" thickBot="1">
+    <row r="4" spans="1:15" ht="15.75" thickBot="1">
       <c r="A4" s="49"/>
       <c r="B4" s="10">
         <v>5</v>
@@ -1249,7 +1331,7 @@
       <c r="L4" s="61"/>
       <c r="M4" s="53"/>
     </row>
-    <row r="5" spans="1:15" ht="15" thickBot="1">
+    <row r="5" spans="1:15" ht="15.75" thickBot="1">
       <c r="A5" s="49"/>
       <c r="B5" s="11">
         <v>10</v>
@@ -1283,7 +1365,7 @@
       <c r="L6" s="61"/>
       <c r="M6" s="53"/>
     </row>
-    <row r="7" spans="1:15" ht="16" thickBot="1">
+    <row r="7" spans="1:15" ht="16.5" thickBot="1">
       <c r="A7" s="59" t="s">
         <v>4</v>
       </c>
@@ -1301,7 +1383,7 @@
       <c r="L7" s="61"/>
       <c r="M7" s="53"/>
     </row>
-    <row r="8" spans="1:15" ht="15" thickBot="1">
+    <row r="8" spans="1:15" ht="15.75" thickBot="1">
       <c r="A8" s="22" t="s">
         <v>5</v>
       </c>
@@ -1327,7 +1409,7 @@
       <c r="L8" s="61"/>
       <c r="M8" s="53"/>
     </row>
-    <row r="9" spans="1:15" ht="15" thickBot="1">
+    <row r="9" spans="1:15" ht="15.75" thickBot="1">
       <c r="A9" s="5">
         <v>2</v>
       </c>
@@ -1354,7 +1436,7 @@
       <c r="M9" s="53"/>
       <c r="O9" s="12"/>
     </row>
-    <row r="10" spans="1:15" ht="15" thickBot="1">
+    <row r="10" spans="1:15" ht="15.75" thickBot="1">
       <c r="A10" s="10">
         <v>3</v>
       </c>
@@ -1380,7 +1462,7 @@
       <c r="L10" s="61"/>
       <c r="M10" s="53"/>
     </row>
-    <row r="11" spans="1:15" ht="15" thickBot="1">
+    <row r="11" spans="1:15" ht="15.75" thickBot="1">
       <c r="A11" s="10">
         <v>5</v>
       </c>
@@ -1420,7 +1502,7 @@
       <c r="L12" s="61"/>
       <c r="M12" s="53"/>
     </row>
-    <row r="13" spans="1:15" ht="16" thickBot="1">
+    <row r="13" spans="1:15" ht="16.5" thickBot="1">
       <c r="A13" s="59" t="s">
         <v>21</v>
       </c>
@@ -1438,7 +1520,7 @@
       <c r="L13" s="61"/>
       <c r="M13" s="53"/>
     </row>
-    <row r="14" spans="1:15" ht="15" thickBot="1">
+    <row r="14" spans="1:15" ht="15.75" thickBot="1">
       <c r="A14" s="49"/>
       <c r="B14" s="22" t="s">
         <v>23</v>
@@ -1458,7 +1540,7 @@
       <c r="L14" s="61"/>
       <c r="M14" s="53"/>
     </row>
-    <row r="15" spans="1:15" ht="15" thickBot="1">
+    <row r="15" spans="1:15" ht="15.75" thickBot="1">
       <c r="A15" s="49"/>
       <c r="B15" s="10">
         <v>50</v>
@@ -1478,7 +1560,7 @@
       <c r="L15" s="61"/>
       <c r="M15" s="53"/>
     </row>
-    <row r="16" spans="1:15" ht="15" thickBot="1">
+    <row r="16" spans="1:15" ht="15.75" thickBot="1">
       <c r="A16" s="49"/>
       <c r="B16" s="10">
         <v>100</v>
@@ -1498,7 +1580,7 @@
       <c r="L16" s="61"/>
       <c r="M16" s="53"/>
     </row>
-    <row r="17" spans="1:13" ht="15" thickBot="1">
+    <row r="17" spans="1:13" ht="15.75" thickBot="1">
       <c r="A17" s="49"/>
       <c r="B17" s="10">
         <v>150</v>
@@ -1532,7 +1614,7 @@
       <c r="L18" s="61"/>
       <c r="M18" s="53"/>
     </row>
-    <row r="19" spans="1:13" ht="16" thickBot="1">
+    <row r="19" spans="1:13" ht="16.5" thickBot="1">
       <c r="A19" s="59" t="s">
         <v>28</v>
       </c>
@@ -1550,7 +1632,7 @@
       <c r="L19" s="61"/>
       <c r="M19" s="53"/>
     </row>
-    <row r="20" spans="1:13" ht="15" thickBot="1">
+    <row r="20" spans="1:13" ht="15.75" thickBot="1">
       <c r="A20" s="22" t="s">
         <v>30</v>
       </c>
@@ -1572,7 +1654,7 @@
       <c r="L20" s="61"/>
       <c r="M20" s="53"/>
     </row>
-    <row r="21" spans="1:13" ht="15" thickBot="1">
+    <row r="21" spans="1:13" ht="15.75" thickBot="1">
       <c r="A21" s="10">
         <v>50</v>
       </c>
@@ -1594,7 +1676,7 @@
       <c r="L21" s="61"/>
       <c r="M21" s="53"/>
     </row>
-    <row r="22" spans="1:13" ht="15" thickBot="1">
+    <row r="22" spans="1:13" ht="15.75" thickBot="1">
       <c r="A22" s="10">
         <v>100</v>
       </c>
@@ -1616,7 +1698,7 @@
       <c r="L22" s="61"/>
       <c r="M22" s="53"/>
     </row>
-    <row r="23" spans="1:13" ht="15" thickBot="1">
+    <row r="23" spans="1:13" ht="15.75" thickBot="1">
       <c r="A23" s="10">
         <v>170</v>
       </c>
@@ -1652,7 +1734,7 @@
       <c r="L24" s="61"/>
       <c r="M24" s="53"/>
     </row>
-    <row r="25" spans="1:13" ht="16" thickBot="1">
+    <row r="25" spans="1:13" ht="16.5" thickBot="1">
       <c r="A25" s="59" t="s">
         <v>36</v>
       </c>
@@ -1671,7 +1753,7 @@
       <c r="L25" s="61"/>
       <c r="M25" s="53"/>
     </row>
-    <row r="26" spans="1:13" ht="15" thickBot="1">
+    <row r="26" spans="1:13" ht="15.75" thickBot="1">
       <c r="A26" s="22" t="s">
         <v>40</v>
       </c>
@@ -1695,7 +1777,7 @@
       <c r="L26" s="61"/>
       <c r="M26" s="53"/>
     </row>
-    <row r="27" spans="1:13" ht="15" thickBot="1">
+    <row r="27" spans="1:13" ht="15.75" thickBot="1">
       <c r="A27" s="10">
         <v>10</v>
       </c>
@@ -1719,7 +1801,7 @@
       <c r="L27" s="61"/>
       <c r="M27" s="53"/>
     </row>
-    <row r="28" spans="1:13" ht="15" thickBot="1">
+    <row r="28" spans="1:13" ht="15.75" thickBot="1">
       <c r="A28" s="10">
         <v>7</v>
       </c>
@@ -1743,7 +1825,7 @@
       <c r="L28" s="61"/>
       <c r="M28" s="53"/>
     </row>
-    <row r="29" spans="1:13" ht="15" thickBot="1">
+    <row r="29" spans="1:13" ht="15.75" thickBot="1">
       <c r="A29" s="10">
         <v>4</v>
       </c>
@@ -1781,7 +1863,7 @@
       <c r="L30" s="61"/>
       <c r="M30" s="53"/>
     </row>
-    <row r="31" spans="1:13" ht="16" thickBot="1">
+    <row r="31" spans="1:13" ht="16.5" thickBot="1">
       <c r="A31" s="59" t="s">
         <v>44</v>
       </c>
@@ -1799,7 +1881,7 @@
       <c r="L31" s="53"/>
       <c r="M31" s="53"/>
     </row>
-    <row r="32" spans="1:13" ht="15" thickBot="1">
+    <row r="32" spans="1:13" ht="15.75" thickBot="1">
       <c r="A32" s="22" t="s">
         <v>49</v>
       </c>
@@ -1823,7 +1905,7 @@
       <c r="L32" s="62"/>
       <c r="M32" s="61"/>
     </row>
-    <row r="33" spans="1:13" ht="15" thickBot="1">
+    <row r="33" spans="1:13" ht="15.75" thickBot="1">
       <c r="A33" s="5">
         <v>4</v>
       </c>
@@ -1847,7 +1929,7 @@
       <c r="L33" s="62"/>
       <c r="M33" s="61"/>
     </row>
-    <row r="34" spans="1:13" ht="15" thickBot="1">
+    <row r="34" spans="1:13" ht="15.75" thickBot="1">
       <c r="A34" s="10">
         <v>25</v>
       </c>
@@ -1871,7 +1953,7 @@
       <c r="L34" s="62"/>
       <c r="M34" s="61"/>
     </row>
-    <row r="35" spans="1:13" ht="15" thickBot="1">
+    <row r="35" spans="1:13" ht="15.75" thickBot="1">
       <c r="A35" s="10">
         <v>150</v>
       </c>
@@ -1895,7 +1977,7 @@
       <c r="L35" s="62"/>
       <c r="M35" s="61"/>
     </row>
-    <row r="36" spans="1:13" ht="15" thickBot="1">
+    <row r="36" spans="1:13" ht="15.75" thickBot="1">
       <c r="A36" s="49"/>
       <c r="B36" s="49"/>
       <c r="C36" s="31" t="s">
@@ -1919,7 +2001,7 @@
       <c r="L36" s="62"/>
       <c r="M36" s="61"/>
     </row>
-    <row r="37" spans="1:13" ht="15" thickBot="1">
+    <row r="37" spans="1:13" ht="15.75" thickBot="1">
       <c r="A37" s="49"/>
       <c r="B37" s="49"/>
       <c r="C37" s="7" t="s">
@@ -1943,7 +2025,7 @@
       <c r="L37" s="62"/>
       <c r="M37" s="61"/>
     </row>
-    <row r="38" spans="1:13" ht="15" thickBot="1">
+    <row r="38" spans="1:13" ht="15.75" thickBot="1">
       <c r="A38" s="49"/>
       <c r="B38" s="49"/>
       <c r="C38" s="7" t="s">
@@ -1967,7 +2049,7 @@
       <c r="L38" s="62"/>
       <c r="M38" s="61"/>
     </row>
-    <row r="39" spans="1:13" ht="15" thickBot="1">
+    <row r="39" spans="1:13" ht="15.75" thickBot="1">
       <c r="A39" s="49"/>
       <c r="B39" s="49"/>
       <c r="C39" s="7" t="s">
@@ -2005,7 +2087,7 @@
       <c r="L40" s="53"/>
       <c r="M40" s="53"/>
     </row>
-    <row r="41" spans="1:13" ht="16" thickBot="1">
+    <row r="41" spans="1:13" ht="16.5" thickBot="1">
       <c r="A41" s="59" t="s">
         <v>64</v>
       </c>
@@ -2024,7 +2106,7 @@
       <c r="L41" s="53"/>
       <c r="M41" s="53"/>
     </row>
-    <row r="42" spans="1:13" ht="15" thickBot="1">
+    <row r="42" spans="1:13" ht="15.75" thickBot="1">
       <c r="A42" s="22" t="s">
         <v>66</v>
       </c>
@@ -2049,7 +2131,7 @@
       <c r="L42" s="61"/>
       <c r="M42" s="61"/>
     </row>
-    <row r="43" spans="1:13" ht="15" thickBot="1">
+    <row r="43" spans="1:13" ht="15.75" thickBot="1">
       <c r="A43" s="10">
         <v>1000</v>
       </c>
@@ -2074,7 +2156,7 @@
       <c r="L43" s="61"/>
       <c r="M43" s="61"/>
     </row>
-    <row r="44" spans="1:13" ht="15" thickBot="1">
+    <row r="44" spans="1:13" ht="15.75" thickBot="1">
       <c r="A44" s="10">
         <v>2000</v>
       </c>
@@ -2099,7 +2181,7 @@
       <c r="L44" s="61"/>
       <c r="M44" s="53"/>
     </row>
-    <row r="45" spans="1:13" ht="15" thickBot="1">
+    <row r="45" spans="1:13" ht="15.75" thickBot="1">
       <c r="A45" s="10">
         <v>1500</v>
       </c>
@@ -2166,7 +2248,7 @@
       <c r="L48" s="53"/>
       <c r="M48" s="53"/>
     </row>
-    <row r="49" spans="1:13" ht="16" thickBot="1">
+    <row r="49" spans="1:13" ht="16.5" thickBot="1">
       <c r="A49" s="59" t="s">
         <v>81</v>
       </c>
@@ -2184,7 +2266,7 @@
       <c r="L49" s="61"/>
       <c r="M49" s="53"/>
     </row>
-    <row r="50" spans="1:13" ht="15" thickBot="1">
+    <row r="50" spans="1:13" ht="15.75" thickBot="1">
       <c r="A50" s="22" t="s">
         <v>72</v>
       </c>
@@ -2208,7 +2290,7 @@
       <c r="L50" s="61"/>
       <c r="M50" s="53"/>
     </row>
-    <row r="51" spans="1:13" ht="15" thickBot="1">
+    <row r="51" spans="1:13" ht="15.75" thickBot="1">
       <c r="A51" s="10">
         <v>2000</v>
       </c>
@@ -2232,7 +2314,7 @@
       <c r="L51" s="61"/>
       <c r="M51" s="53"/>
     </row>
-    <row r="52" spans="1:13" ht="15" thickBot="1">
+    <row r="52" spans="1:13" ht="15.75" thickBot="1">
       <c r="A52" s="10">
         <v>5700</v>
       </c>
@@ -2256,7 +2338,7 @@
       <c r="L52" s="61"/>
       <c r="M52" s="53"/>
     </row>
-    <row r="53" spans="1:13" ht="15" thickBot="1">
+    <row r="53" spans="1:13" ht="15.75" thickBot="1">
       <c r="A53" s="10">
         <v>1000</v>
       </c>
@@ -2294,7 +2376,7 @@
       <c r="L54" s="53"/>
       <c r="M54" s="53"/>
     </row>
-    <row r="55" spans="1:13" ht="16" thickBot="1">
+    <row r="55" spans="1:13" ht="16.5" thickBot="1">
       <c r="A55" s="59" t="s">
         <v>93</v>
       </c>
@@ -2312,7 +2394,7 @@
       <c r="L55" s="53"/>
       <c r="M55" s="53"/>
     </row>
-    <row r="56" spans="1:13" ht="15" thickBot="1">
+    <row r="56" spans="1:13" ht="15.75" thickBot="1">
       <c r="A56" s="22" t="s">
         <v>95</v>
       </c>
@@ -2334,7 +2416,7 @@
       <c r="L56" s="61"/>
       <c r="M56" s="53"/>
     </row>
-    <row r="57" spans="1:13" ht="15" thickBot="1">
+    <row r="57" spans="1:13" ht="15.75" thickBot="1">
       <c r="A57" s="37">
         <v>100</v>
       </c>
@@ -2356,7 +2438,7 @@
       <c r="L57" s="61"/>
       <c r="M57" s="53"/>
     </row>
-    <row r="58" spans="1:13" ht="15" thickBot="1">
+    <row r="58" spans="1:13" ht="15.75" thickBot="1">
       <c r="A58" s="37">
         <v>50</v>
       </c>
@@ -2378,7 +2460,7 @@
       <c r="L58" s="61"/>
       <c r="M58" s="53"/>
     </row>
-    <row r="59" spans="1:13" ht="15" thickBot="1">
+    <row r="59" spans="1:13" ht="15.75" thickBot="1">
       <c r="A59" s="37">
         <v>400</v>
       </c>
@@ -2414,7 +2496,7 @@
       <c r="L60" s="61"/>
       <c r="M60" s="53"/>
     </row>
-    <row r="61" spans="1:13" ht="16" thickBot="1">
+    <row r="61" spans="1:13" ht="16.5" thickBot="1">
       <c r="A61" s="59" t="s">
         <v>101</v>
       </c>
@@ -2431,7 +2513,7 @@
       <c r="J61" s="47"/>
       <c r="M61" s="12"/>
     </row>
-    <row r="62" spans="1:13" ht="15" thickBot="1">
+    <row r="62" spans="1:13" ht="15.75" thickBot="1">
       <c r="A62" s="49"/>
       <c r="B62" s="38" t="s">
         <v>104</v>
@@ -2451,7 +2533,7 @@
       <c r="L62" s="61"/>
       <c r="M62" s="53"/>
     </row>
-    <row r="63" spans="1:13" ht="15" thickBot="1">
+    <row r="63" spans="1:13" ht="15.75" thickBot="1">
       <c r="A63" s="49"/>
       <c r="B63" s="10" t="s">
         <v>105</v>
@@ -2471,7 +2553,7 @@
       <c r="L63" s="61"/>
       <c r="M63" s="53"/>
     </row>
-    <row r="64" spans="1:13" ht="15" thickBot="1">
+    <row r="64" spans="1:13" ht="15.75" thickBot="1">
       <c r="A64" s="49"/>
       <c r="B64" s="10" t="s">
         <v>106</v>
@@ -2491,7 +2573,7 @@
       <c r="L64" s="61"/>
       <c r="M64" s="53"/>
     </row>
-    <row r="65" spans="1:13" ht="15" thickBot="1">
+    <row r="65" spans="1:13" ht="15.75" thickBot="1">
       <c r="A65" s="49"/>
       <c r="B65" s="10" t="s">
         <v>107</v>
@@ -2524,22 +2606,24 @@
       <c r="J66" s="58"/>
     </row>
     <row r="67" spans="1:13">
-      <c r="A67" s="64"/>
-      <c r="B67" s="64"/>
-      <c r="C67" s="64"/>
-      <c r="D67" s="64"/>
-      <c r="E67" s="64"/>
-      <c r="F67" s="64"/>
-      <c r="G67" s="64"/>
-      <c r="H67" s="64"/>
-      <c r="I67" s="64"/>
-      <c r="J67" s="64"/>
-    </row>
-    <row r="68" spans="1:13" ht="16" thickBot="1">
-      <c r="A68" s="65" t="s">
+      <c r="A67" s="89" t="s">
+        <v>151</v>
+      </c>
+      <c r="B67" s="90"/>
+      <c r="C67" s="90"/>
+      <c r="D67" s="90"/>
+      <c r="E67" s="90"/>
+      <c r="F67" s="90"/>
+      <c r="G67" s="90"/>
+      <c r="H67" s="90"/>
+      <c r="I67" s="90"/>
+      <c r="J67" s="90"/>
+    </row>
+    <row r="68" spans="1:13" ht="16.5" thickBot="1">
+      <c r="A68" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="B68" s="66" t="s">
+      <c r="B68" s="64" t="s">
         <v>111</v>
       </c>
       <c r="C68" s="47"/>
@@ -2551,19 +2635,19 @@
       <c r="I68" s="47"/>
       <c r="J68" s="47"/>
     </row>
-    <row r="69" spans="1:13" ht="15" thickBot="1">
-      <c r="A69" s="67" t="s">
+    <row r="69" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A69" s="65" t="s">
         <v>95</v>
       </c>
-      <c r="B69" s="67" t="s">
+      <c r="B69" s="65" t="s">
         <v>96</v>
       </c>
-      <c r="C69" s="68" t="s">
+      <c r="C69" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="D69" s="69"/>
-      <c r="E69" s="69"/>
-      <c r="F69" s="70" t="s">
+      <c r="D69" s="75"/>
+      <c r="E69" s="75"/>
+      <c r="F69" s="66" t="s">
         <v>112</v>
       </c>
       <c r="G69" s="49"/>
@@ -2571,7 +2655,7 @@
       <c r="I69" s="49"/>
       <c r="J69" s="49"/>
     </row>
-    <row r="70" spans="1:13" ht="15" thickBot="1">
+    <row r="70" spans="1:13" ht="15.75" thickBot="1">
       <c r="A70" s="10">
         <v>4.5</v>
       </c>
@@ -2591,7 +2675,7 @@
       <c r="I70" s="49"/>
       <c r="J70" s="49"/>
     </row>
-    <row r="71" spans="1:13" ht="15" thickBot="1">
+    <row r="71" spans="1:13" ht="15.75" thickBot="1">
       <c r="A71" s="10">
         <v>2</v>
       </c>
@@ -2611,7 +2695,7 @@
       <c r="I71" s="49"/>
       <c r="J71" s="49"/>
     </row>
-    <row r="72" spans="1:13" ht="15" thickBot="1">
+    <row r="72" spans="1:13" ht="15.75" thickBot="1">
       <c r="A72" s="10">
         <v>5</v>
       </c>
@@ -2632,22 +2716,22 @@
       <c r="J72" s="49"/>
     </row>
     <row r="73" spans="1:13">
-      <c r="A73" s="71"/>
-      <c r="B73" s="71"/>
-      <c r="C73" s="71"/>
-      <c r="D73" s="71"/>
-      <c r="E73" s="71"/>
-      <c r="F73" s="71"/>
-      <c r="G73" s="71"/>
-      <c r="H73" s="71"/>
-      <c r="I73" s="71"/>
-      <c r="J73" s="71"/>
-    </row>
-    <row r="74" spans="1:13" ht="16" thickBot="1">
-      <c r="A74" s="72" t="s">
+      <c r="A73" s="67"/>
+      <c r="B73" s="67"/>
+      <c r="C73" s="67"/>
+      <c r="D73" s="67"/>
+      <c r="E73" s="67"/>
+      <c r="F73" s="67"/>
+      <c r="G73" s="67"/>
+      <c r="H73" s="67"/>
+      <c r="I73" s="67"/>
+      <c r="J73" s="67"/>
+    </row>
+    <row r="74" spans="1:13" ht="16.5" thickBot="1">
+      <c r="A74" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="B74" s="73" t="s">
+      <c r="B74" s="69" t="s">
         <v>116</v>
       </c>
       <c r="C74" s="47"/>
@@ -2659,35 +2743,35 @@
       <c r="I74" s="47"/>
       <c r="J74" s="47"/>
     </row>
-    <row r="75" spans="1:13" ht="15" thickBot="1">
-      <c r="A75" s="67" t="s">
+    <row r="75" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A75" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="B75" s="67" t="s">
+      <c r="B75" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="C75" s="67" t="s">
+      <c r="C75" s="65" t="s">
         <v>117</v>
       </c>
-      <c r="D75" s="67" t="s">
+      <c r="D75" s="65" t="s">
         <v>118</v>
       </c>
-      <c r="E75" s="67" t="s">
+      <c r="E75" s="65" t="s">
         <v>119</v>
       </c>
-      <c r="F75" s="67" t="s">
+      <c r="F75" s="65" t="s">
         <v>120</v>
       </c>
-      <c r="G75" s="67" t="s">
+      <c r="G75" s="65" t="s">
         <v>121</v>
       </c>
-      <c r="H75" s="67" t="s">
+      <c r="H75" s="65" t="s">
         <v>122</v>
       </c>
       <c r="I75" s="49"/>
       <c r="J75" s="49"/>
     </row>
-    <row r="76" spans="1:13" ht="15" thickBot="1">
+    <row r="76" spans="1:13" ht="15.75" thickBot="1">
       <c r="A76" s="10">
         <v>2</v>
       </c>
@@ -2700,13 +2784,13 @@
       <c r="D76" s="5">
         <v>6</v>
       </c>
-      <c r="E76" s="74" t="s">
+      <c r="E76" s="70" t="s">
         <v>124</v>
       </c>
       <c r="F76" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="G76" s="75" t="s">
+      <c r="G76" s="71" t="s">
         <v>126</v>
       </c>
       <c r="H76" s="17" t="s">
@@ -2715,7 +2799,7 @@
       <c r="I76" s="49"/>
       <c r="J76" s="49"/>
     </row>
-    <row r="77" spans="1:13" ht="15" thickBot="1">
+    <row r="77" spans="1:13" ht="15.75" thickBot="1">
       <c r="A77" s="10">
         <v>1</v>
       </c>
@@ -2728,13 +2812,13 @@
       <c r="D77" s="5">
         <v>9</v>
       </c>
-      <c r="E77" s="74" t="s">
+      <c r="E77" s="70" t="s">
         <v>129</v>
       </c>
       <c r="F77" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="G77" s="75" t="s">
+      <c r="G77" s="71" t="s">
         <v>126</v>
       </c>
       <c r="H77" s="17" t="s">
@@ -2742,9 +2826,9 @@
       </c>
       <c r="I77" s="49"/>
       <c r="J77" s="49"/>
-      <c r="M77" s="82"/>
-    </row>
-    <row r="78" spans="1:13" ht="15" thickBot="1">
+      <c r="M77" s="73"/>
+    </row>
+    <row r="78" spans="1:13" ht="15.75" thickBot="1">
       <c r="A78" s="10">
         <v>1</v>
       </c>
@@ -2757,13 +2841,13 @@
       <c r="D78" s="5">
         <v>4</v>
       </c>
-      <c r="E78" s="74" t="s">
+      <c r="E78" s="70" t="s">
         <v>129</v>
       </c>
       <c r="F78" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="G78" s="75" t="s">
+      <c r="G78" s="71" t="s">
         <v>132</v>
       </c>
       <c r="H78" s="17" t="s">
@@ -2772,31 +2856,31 @@
       <c r="I78" s="49"/>
       <c r="J78" s="49"/>
     </row>
-    <row r="79" spans="1:13" ht="15" thickBot="1">
+    <row r="79" spans="1:13" ht="15.75" thickBot="1">
       <c r="A79" s="49"/>
       <c r="B79" s="49"/>
       <c r="C79" s="49"/>
       <c r="D79" s="49"/>
-      <c r="E79" s="77" t="s">
+      <c r="E79" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="F79" s="78"/>
-      <c r="G79" s="78"/>
-      <c r="H79" s="76" t="s">
+      <c r="F79" s="77"/>
+      <c r="G79" s="77"/>
+      <c r="H79" s="72" t="s">
         <v>123</v>
       </c>
       <c r="I79" s="49"/>
       <c r="J79" s="49"/>
     </row>
-    <row r="80" spans="1:13" ht="15" thickBot="1">
+    <row r="80" spans="1:13" ht="15.75" thickBot="1">
       <c r="A80" s="49"/>
       <c r="B80" s="49"/>
       <c r="C80" s="49"/>
       <c r="D80" s="49"/>
-      <c r="E80" s="79" t="s">
+      <c r="E80" s="78" t="s">
         <v>128</v>
       </c>
-      <c r="F80" s="81"/>
+      <c r="F80" s="79"/>
       <c r="G80" s="80"/>
       <c r="H80" s="4">
         <v>81</v>
@@ -2804,15 +2888,15 @@
       <c r="I80" s="49"/>
       <c r="J80" s="49"/>
     </row>
-    <row r="81" spans="1:10" ht="15" thickBot="1">
+    <row r="81" spans="1:10" ht="15.75" thickBot="1">
       <c r="A81" s="49"/>
       <c r="B81" s="49"/>
       <c r="C81" s="49"/>
       <c r="D81" s="49"/>
-      <c r="E81" s="79" t="s">
+      <c r="E81" s="78" t="s">
         <v>131</v>
       </c>
-      <c r="F81" s="81"/>
+      <c r="F81" s="79"/>
       <c r="G81" s="80"/>
       <c r="H81" s="4">
         <v>123</v>
@@ -2820,15 +2904,15 @@
       <c r="I81" s="49"/>
       <c r="J81" s="49"/>
     </row>
-    <row r="82" spans="1:10" ht="15" thickBot="1">
+    <row r="82" spans="1:10" ht="15.75" thickBot="1">
       <c r="A82" s="49"/>
       <c r="B82" s="49"/>
       <c r="C82" s="49"/>
       <c r="D82" s="49"/>
-      <c r="E82" s="79" t="s">
+      <c r="E82" s="78" t="s">
         <v>133</v>
       </c>
-      <c r="F82" s="81"/>
+      <c r="F82" s="79"/>
       <c r="G82" s="80"/>
       <c r="H82" s="4">
         <v>30</v>
@@ -2848,14 +2932,270 @@
       <c r="I83" s="58"/>
       <c r="J83" s="58"/>
     </row>
+    <row r="84" spans="1:10" ht="16.5" thickBot="1">
+      <c r="A84" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="B84" s="82" t="s">
+        <v>134</v>
+      </c>
+      <c r="C84" s="47"/>
+      <c r="D84" s="47"/>
+      <c r="E84" s="47"/>
+      <c r="F84" s="47"/>
+      <c r="G84" s="47"/>
+      <c r="H84" s="47"/>
+      <c r="I84" s="47"/>
+      <c r="J84" s="47"/>
+    </row>
+    <row r="85" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A85" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="B85" s="65" t="s">
+        <v>135</v>
+      </c>
+      <c r="C85" s="65" t="s">
+        <v>136</v>
+      </c>
+      <c r="D85" s="74" t="s">
+        <v>137</v>
+      </c>
+      <c r="E85" s="87"/>
+      <c r="F85" s="88"/>
+      <c r="G85" s="74" t="s">
+        <v>138</v>
+      </c>
+      <c r="H85" s="88"/>
+      <c r="I85" s="65" t="s">
+        <v>139</v>
+      </c>
+      <c r="J85" s="65" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A86" s="10">
+        <v>450</v>
+      </c>
+      <c r="B86" s="10">
+        <v>10</v>
+      </c>
+      <c r="C86" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="D86" s="78" t="s">
+        <v>148</v>
+      </c>
+      <c r="E86" s="79"/>
+      <c r="F86" s="80"/>
+      <c r="G86" s="83" t="s">
+        <v>147</v>
+      </c>
+      <c r="H86" s="84"/>
+      <c r="I86" s="4">
+        <v>202.5</v>
+      </c>
+      <c r="J86" s="19">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A87" s="10">
+        <v>500</v>
+      </c>
+      <c r="B87" s="10">
+        <v>5</v>
+      </c>
+      <c r="C87" s="10">
+        <v>5.5</v>
+      </c>
+      <c r="D87" s="78" t="s">
+        <v>149</v>
+      </c>
+      <c r="E87" s="79"/>
+      <c r="F87" s="80"/>
+      <c r="G87" s="83" t="s">
+        <v>147</v>
+      </c>
+      <c r="H87" s="84"/>
+      <c r="I87" s="4">
+        <v>550</v>
+      </c>
+      <c r="J87" s="19">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A88" s="10">
+        <v>2000</v>
+      </c>
+      <c r="B88" s="10">
+        <v>10</v>
+      </c>
+      <c r="C88" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="D88" s="78" t="s">
+        <v>150</v>
+      </c>
+      <c r="E88" s="79"/>
+      <c r="F88" s="80"/>
+      <c r="G88" s="83" t="s">
+        <v>147</v>
+      </c>
+      <c r="H88" s="84"/>
+      <c r="I88" s="4">
+        <v>500</v>
+      </c>
+      <c r="J88" s="19">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
+      <c r="A89" s="58"/>
+      <c r="B89" s="58"/>
+      <c r="C89" s="58"/>
+      <c r="D89" s="58"/>
+      <c r="E89" s="58"/>
+      <c r="F89" s="58"/>
+      <c r="G89" s="58"/>
+      <c r="H89" s="58"/>
+      <c r="I89" s="58"/>
+      <c r="J89" s="58"/>
+    </row>
+    <row r="90" spans="1:10" ht="16.5" thickBot="1">
+      <c r="A90" s="68" t="s">
+        <v>28</v>
+      </c>
+      <c r="B90" s="86" t="s">
+        <v>141</v>
+      </c>
+      <c r="C90" s="85"/>
+      <c r="D90" s="85"/>
+      <c r="E90" s="85"/>
+      <c r="F90" s="85"/>
+      <c r="G90" s="85"/>
+      <c r="H90" s="85"/>
+      <c r="I90" s="85"/>
+      <c r="J90" s="85"/>
+    </row>
+    <row r="91" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A91" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="B91" s="65" t="s">
+        <v>142</v>
+      </c>
+      <c r="C91" s="74" t="s">
+        <v>1</v>
+      </c>
+      <c r="D91" s="87"/>
+      <c r="E91" s="88"/>
+      <c r="F91" s="65" t="s">
+        <v>143</v>
+      </c>
+      <c r="G91" s="49"/>
+      <c r="H91" s="49"/>
+      <c r="I91" s="49"/>
+      <c r="J91" s="49"/>
+    </row>
+    <row r="92" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A92" s="10">
+        <v>150</v>
+      </c>
+      <c r="B92" s="10">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="C92" s="78" t="s">
+        <v>144</v>
+      </c>
+      <c r="D92" s="79"/>
+      <c r="E92" s="80"/>
+      <c r="F92" s="4">
+        <v>132.69999999999999</v>
+      </c>
+      <c r="G92" s="49"/>
+      <c r="H92" s="49"/>
+      <c r="I92" s="49"/>
+      <c r="J92" s="49"/>
+    </row>
+    <row r="93" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A93" s="10">
+        <v>200</v>
+      </c>
+      <c r="B93" s="10">
+        <v>5</v>
+      </c>
+      <c r="C93" s="78" t="s">
+        <v>145</v>
+      </c>
+      <c r="D93" s="79"/>
+      <c r="E93" s="80"/>
+      <c r="F93" s="4">
+        <v>40</v>
+      </c>
+      <c r="G93" s="49"/>
+      <c r="H93" s="49"/>
+      <c r="I93" s="49"/>
+      <c r="J93" s="49"/>
+    </row>
+    <row r="94" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A94" s="10">
+        <v>1500</v>
+      </c>
+      <c r="B94" s="10">
+        <v>7</v>
+      </c>
+      <c r="C94" s="78" t="s">
+        <v>146</v>
+      </c>
+      <c r="D94" s="79"/>
+      <c r="E94" s="80"/>
+      <c r="F94" s="4">
+        <v>214.9</v>
+      </c>
+      <c r="G94" s="49"/>
+      <c r="H94" s="49"/>
+      <c r="I94" s="49"/>
+      <c r="J94" s="49"/>
+    </row>
+    <row r="95" spans="1:10">
+      <c r="A95" s="81"/>
+      <c r="B95" s="81"/>
+      <c r="C95" s="81"/>
+      <c r="D95" s="81"/>
+      <c r="E95" s="81"/>
+      <c r="F95" s="81"/>
+      <c r="G95" s="81"/>
+      <c r="H95" s="81"/>
+      <c r="I95" s="81"/>
+      <c r="J95" s="81"/>
+    </row>
+    <row r="97" spans="12:12">
+      <c r="L97" s="73"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="19">
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="D88:F88"/>
+    <mergeCell ref="D87:F87"/>
+    <mergeCell ref="D86:F86"/>
+    <mergeCell ref="B90:J90"/>
+    <mergeCell ref="C91:E91"/>
+    <mergeCell ref="C92:E92"/>
+    <mergeCell ref="C93:E93"/>
+    <mergeCell ref="C94:E94"/>
+    <mergeCell ref="E82:G82"/>
+    <mergeCell ref="D85:F85"/>
     <mergeCell ref="A67:J67"/>
     <mergeCell ref="C69:E69"/>
     <mergeCell ref="E79:G79"/>
     <mergeCell ref="E80:G80"/>
     <mergeCell ref="E81:G81"/>
-    <mergeCell ref="E82:G82"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
